--- a/R-Scripts/CORRECTION.xlsx
+++ b/R-Scripts/CORRECTION.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Dropbox\Mein PC (Gemeinsamer-PC)\Documents\GitHub\Ichneumonidae\R-Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8DED0C-918D-4E05-BC5A-1D9F2BE213E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7144BF25-9FC6-4314-ADAC-4F25D9A9B9DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="30" windowWidth="12330" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Subtribes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,145 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>anumin_gelina_gelgny_o.JPG</t>
-  </si>
-  <si>
-    <t>brabra_gelina_gelmas_g.JPG</t>
-  </si>
-  <si>
-    <t>bratem_gelina_gelacr_g.JPG</t>
-  </si>
-  <si>
-    <t>epeano_gelina_gelchi_o.JPG</t>
-  </si>
-  <si>
-    <t>forbid_gelina_gelgel_g.JPG</t>
-  </si>
-  <si>
-    <t>gracil_gelina_gelend_o.JPG</t>
-  </si>
-  <si>
-    <t>hyphex_gelina_gelrot_g.JPG</t>
-  </si>
-  <si>
-    <t>lislae_gelina_gelchi_o.JPG</t>
-  </si>
-  <si>
-    <t>oeccus_gelina_gelphy_g.JPG</t>
-  </si>
-  <si>
-    <t>plehun_gelina_gelhem_o.JPG</t>
-  </si>
-  <si>
-    <t>rhasig_gelina_gelbat_g.JPG</t>
-  </si>
-  <si>
-    <t>rhequa_gelina_gelelh_g.JPG</t>
-  </si>
-  <si>
-    <t>stigag_gelina_gelsti_g.JPG</t>
-  </si>
-  <si>
-    <t>trazon_gelina_gelacr_g.JPG</t>
-  </si>
-  <si>
-    <t>vesmaj_gelina_gelcre_o.JPG</t>
-  </si>
-  <si>
-    <t>apopra_gelina_mesgab_g.JPG</t>
-  </si>
-  <si>
-    <t>apshir_gelina_mesagr_g.JPG</t>
-  </si>
-  <si>
-    <t>artfor_gelina_messph_g.JPG</t>
-  </si>
-  <si>
-    <t>atetsi_gelina_mesate_g.JPG</t>
-  </si>
-  <si>
-    <t>bicver_gelina_meslym_g.JPG</t>
-  </si>
-  <si>
-    <t>coeful_gelina_mescoe_g.JPG</t>
-  </si>
-  <si>
-    <t>crespi_gelina_mescer_g.JPG</t>
-  </si>
-  <si>
-    <t>cryban_gelina_mesmes_g.JPG</t>
-  </si>
-  <si>
-    <t>dicsp_gelina_mesglo_g.JPG</t>
-  </si>
-  <si>
-    <t>melsp_gelina_mesmel_g.JPG</t>
-  </si>
-  <si>
-    <t>necsp_gelina_mesgor_g.JPG</t>
-  </si>
-  <si>
-    <t>odospi_gelina_mesisc_g.JPG</t>
-  </si>
-  <si>
-    <t>parsap_gelina_mesbar_g.JPG</t>
-  </si>
-  <si>
-    <t>picmel_gelina_mesnem_g.JPG</t>
-  </si>
-  <si>
-    <t>steaxi_gelina_mesvag_g.JPG</t>
-  </si>
-  <si>
-    <t>steins_gelina_mesnem_g.JPG</t>
-  </si>
-  <si>
-    <t>acotar_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>crapet_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>cubdis_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>demcor_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>echrel_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>javsp_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>litnoh_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>manbak_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>notinc_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>oretsu_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>parple_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>plasp_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>pledig_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>polpal_gelina_ech_g.JPG</t>
-  </si>
-  <si>
-    <t>stopic_gelina_ech_g.JPG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>AREOLET</t>
   </si>
@@ -178,6 +41,240 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>acotar_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>crapet_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>cubdis_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>demcor_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>echrel_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>javsp_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>litnoh_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>manbak_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>notinc_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>oretsu_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>parple_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>plasp_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>pledig_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>polpal_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>stopic_gelina_g_echech.JPG</t>
+  </si>
+  <si>
+    <t>brabra_gelina_g_gelmas.JPG</t>
+  </si>
+  <si>
+    <t>bratem_gelina_g_gelacr.JPG</t>
+  </si>
+  <si>
+    <t>forbid_gelina_g_gelgel.JPG</t>
+  </si>
+  <si>
+    <t>hyphex_gelina_g_gelrot.JPG</t>
+  </si>
+  <si>
+    <t>oeccus_gelina_g_gelphy.JPG</t>
+  </si>
+  <si>
+    <t>rhasig_gelina_g_gelbat.JPG</t>
+  </si>
+  <si>
+    <t>stigag_gelina_g_gelsti.JPG</t>
+  </si>
+  <si>
+    <t>trazon_gelina_g_gelacr.JPG</t>
+  </si>
+  <si>
+    <t>apopra_gelina_g_mesgab.JPG</t>
+  </si>
+  <si>
+    <t>apshir_gelina_g_mesagr.JPG</t>
+  </si>
+  <si>
+    <t>artfor_gelina_g_messph.JPG</t>
+  </si>
+  <si>
+    <t>atetsi_gelina_g_mesate.JPG</t>
+  </si>
+  <si>
+    <t>bicver_gelina_g_meslym.JPG</t>
+  </si>
+  <si>
+    <t>coeful_gelina_g_mescoe.JPG</t>
+  </si>
+  <si>
+    <t>crespi_gelina_g_mescer.JPG</t>
+  </si>
+  <si>
+    <t>cryban_gelina_g_mesmes.JPG</t>
+  </si>
+  <si>
+    <t>dicsp_gelina_g_mesglo.JPG</t>
+  </si>
+  <si>
+    <t>melsp_gelina_g_mesmel.JPG</t>
+  </si>
+  <si>
+    <t>necsp_gelina_g_mesgor.JPG</t>
+  </si>
+  <si>
+    <t>odospi_gelina_g_mesisc.JPG</t>
+  </si>
+  <si>
+    <t>parsap_gelina_g_mesbar.JPG</t>
+  </si>
+  <si>
+    <t>picmel_gelina_g_mesnem.JPG</t>
+  </si>
+  <si>
+    <t>steaxi_gelina_g_mesvag.JPG</t>
+  </si>
+  <si>
+    <t>steins_gelina_g_mesnem.JPG</t>
+  </si>
+  <si>
+    <t>anumin_gelina_o_gelgny.JPG</t>
+  </si>
+  <si>
+    <t>epeano_gelina_o_gelchi.JPG</t>
+  </si>
+  <si>
+    <t>gracil_gelina_o_gelend.JPG</t>
+  </si>
+  <si>
+    <t>lislae_gelina_o_gelchi.JPG</t>
+  </si>
+  <si>
+    <t>plehun_gelina_o_gelhem.JPG</t>
+  </si>
+  <si>
+    <t>vesmaj_gelina_o_gelcre.JPG</t>
+  </si>
+  <si>
+    <t>astmet_gelina_o_gelchi.JPG</t>
+  </si>
+  <si>
+    <t>Gelini</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>Chiroticina</t>
+  </si>
+  <si>
+    <t>Acrolytina</t>
+  </si>
+  <si>
+    <t>Hemitelina</t>
+  </si>
+  <si>
+    <t>Gelina</t>
+  </si>
+  <si>
+    <t>Gnypetomorphina</t>
+  </si>
+  <si>
+    <t>Mastrina</t>
+  </si>
+  <si>
+    <t>Ethelurgina</t>
+  </si>
+  <si>
+    <t>Rothneyiina</t>
+  </si>
+  <si>
+    <t>Endaseina</t>
+  </si>
+  <si>
+    <t>rhequa_gelina_g_geleth.JPG</t>
+  </si>
+  <si>
+    <t>Bathytrichina</t>
+  </si>
+  <si>
+    <t>Phygadeuontina</t>
+  </si>
+  <si>
+    <t>Stilpnina</t>
+  </si>
+  <si>
+    <t>Cremnodina</t>
+  </si>
+  <si>
+    <t>Mesostenini</t>
+  </si>
+  <si>
+    <t>Agrothereutina</t>
+  </si>
+  <si>
+    <t>Ischnina</t>
+  </si>
+  <si>
+    <t>Baryceratina</t>
+  </si>
+  <si>
+    <t>Mesostenina</t>
+  </si>
+  <si>
+    <t>Glodianina</t>
+  </si>
+  <si>
+    <t>Goryphina</t>
+  </si>
+  <si>
+    <t>Lymeonina</t>
+  </si>
+  <si>
+    <t>Coesula</t>
+  </si>
+  <si>
+    <t>Stetholophus</t>
+  </si>
+  <si>
+    <t>Ateleute</t>
+  </si>
+  <si>
+    <t>Melanocryptus</t>
+  </si>
+  <si>
+    <t>Ceratocryptina</t>
+  </si>
+  <si>
+    <t>Nematopodiina</t>
+  </si>
+  <si>
+    <t>Gabuniina</t>
+  </si>
+  <si>
+    <t>Sphecophagina</t>
   </si>
 </sst>
 </file>
@@ -213,8 +310,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -529,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,18 +640,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B47" si="0" xml:space="preserve"> IF(ISNUMBER(SEARCH("ech",A2)), "Echthrini", IF(ISNUMBER(SEARCH("mes",A2)), "Mestioni", "Gelini"))</f>
@@ -566,7 +664,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -579,7 +677,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -592,7 +690,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -605,7 +703,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -618,7 +716,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -631,7 +729,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -644,7 +742,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -657,7 +755,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -670,7 +768,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -683,7 +781,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -696,7 +794,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -709,7 +807,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -722,7 +820,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -735,7 +833,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -746,87 +844,87 @@
         <v>CLOSED</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="str">
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Gelini</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <f xml:space="preserve"> IF(ISNUMBER(SEARCH("_o",A17)), "OPEN", "CLOSED")</f>
         <v>OPEN</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="str">
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Gelini</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <f t="shared" ref="C18:C47" si="2" xml:space="preserve"> IF(ISNUMBER(SEARCH("_o",A18)), "OPEN", "CLOSED")</f>
         <v>CLOSED</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="str">
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Gelini</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="2"/>
-        <v>CLOSED</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CLOSED</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Gelini</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>OPEN</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="str">
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Gelini</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="2"/>
-        <v>CLOSED</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CLOSED</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Gelini</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>OPEN</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -839,7 +937,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -852,7 +950,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -865,7 +963,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -878,7 +976,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -891,7 +989,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -904,7 +1002,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -917,7 +1015,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -930,7 +1028,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -943,7 +1041,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -956,7 +1054,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -969,7 +1067,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -982,7 +1080,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -995,7 +1093,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -1008,7 +1106,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -1021,7 +1119,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -1034,7 +1132,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -1047,7 +1145,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -1060,7 +1158,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -1073,7 +1171,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -1086,7 +1184,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -1099,7 +1197,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -1112,7 +1210,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -1125,7 +1223,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -1138,7 +1236,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -1147,9 +1245,157 @@
       <c r="C47" t="str">
         <f t="shared" si="2"/>
         <v>CLOSED</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC9EF68-BC25-4E29-87B0-19F21FFCDEC4}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>